--- a/biology/Médecine/Karl_H._Pribram/Karl_H._Pribram.xlsx
+++ b/biology/Médecine/Karl_H._Pribram/Karl_H._Pribram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Karl H. Pribram (né le 25 février 1919, à Vienne (Autriche) et décédé le 19 janvier 2015[1]) est chercheur en psychologie et sciences cognitives à l’université de Georgetown, Washington (États-Unis). Professeur à l’université Stanford, et pionnier de la recherche sur le cortex cérébral, il est connu pour avoir développé le modèle holonomique du cerveau et de la fonction cognitive et pour sa contribution à la recherche neurologique actuelle sur les engrammes. Il s'est également intéressé à la base neurophysiologique des expériences « spirituelles ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karl H. Pribram (né le 25 février 1919, à Vienne (Autriche) et décédé le 19 janvier 2015) est chercheur en psychologie et sciences cognitives à l’université de Georgetown, Washington (États-Unis). Professeur à l’université Stanford, et pionnier de la recherche sur le cortex cérébral, il est connu pour avoir développé le modèle holonomique du cerveau et de la fonction cognitive et pour sa contribution à la recherche neurologique actuelle sur les engrammes. Il s'est également intéressé à la base neurophysiologique des expériences « spirituelles ».
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Théorie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1969 à l'université Stanford, le Dr Karl H. Pribram, physiologiste du cerveau renommé, suggéra que l'hologramme offrait un puissant modèle des processus cérébraux. 
 Cette intuition résulta d'une analogie consistant à relier deux découvertes contemporaines interdisciplinaires :
